--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3980.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3980.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274591780790635</v>
+        <v>0.8395434617996216</v>
       </c>
       <c r="B1">
-        <v>2.752610349822338</v>
+        <v>1.381192803382874</v>
       </c>
       <c r="C1">
-        <v>5.387236302622918</v>
+        <v>1.669219136238098</v>
       </c>
       <c r="D1">
-        <v>2.950555037377999</v>
+        <v>4.820402145385742</v>
       </c>
       <c r="E1">
-        <v>1.328698360747426</v>
+        <v>4.851388454437256</v>
       </c>
     </row>
   </sheetData>
